--- a/biology/Botanique/Ache/Ache.xlsx
+++ b/biology/Botanique/Ache/Ache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ache est un nom vernaculaire ambigu désignant en français certaines plantes de la famille des Apiaceae, principalement classées avec les céleris dans le genre Apium. On dit une ache.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces appelées « ache »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ache : Apium graveolens
 Ache des chiens : Aethusa cynapium
@@ -554,7 +568,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En décoration architecturale du Moyen Âge, la feuille d'ache a été souvent reproduite lors de la période ogivale, ainsi que dans l'art du blason où elle sert de fleuron sur certaines couronnes, en particulier (en France) celles de duc et de marquis.
 </t>
@@ -585,9 +601,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Grecs en couronnaient les vainqueurs des Jeux isthmiques : les vertes tiges de l'ache couronnent le front de ce vainqueur heureux (Pindare)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Grecs en couronnaient les vainqueurs des Jeux isthmiques : les vertes tiges de l'ache couronnent le front de ce vainqueur heureux (Pindare)
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Symbolisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ache symbolise une jeunesse triomphante et joyeuse.  Si elle jouait un rôle important dans les cérémonies funèbres, c'était pour indiquer l'état d'éternelle jeunesse, auquel le défunt venait d'accéder[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ache symbolise une jeunesse triomphante et joyeuse.  Si elle jouait un rôle important dans les cérémonies funèbres, c'était pour indiquer l'état d'éternelle jeunesse, auquel le défunt venait d'accéder.
 </t>
         </is>
       </c>
